--- a/data/532/HKSE/Hang Seng Index - Weekly.xlsx
+++ b/data/532/HKSE/Hang Seng Index - Weekly.xlsx
@@ -32102,20 +32102,48 @@
       <c r="CTE4" t="n">
         <v>8201.950000000001</v>
       </c>
-      <c r="CTF4" t="inlineStr"/>
-      <c r="CTG4" t="inlineStr"/>
-      <c r="CTH4" t="inlineStr"/>
-      <c r="CTI4" t="inlineStr"/>
-      <c r="CTJ4" t="inlineStr"/>
-      <c r="CTK4" t="inlineStr"/>
-      <c r="CTL4" t="inlineStr"/>
-      <c r="CTM4" t="inlineStr"/>
-      <c r="CTN4" t="inlineStr"/>
-      <c r="CTO4" t="inlineStr"/>
-      <c r="CTP4" t="inlineStr"/>
-      <c r="CTQ4" t="inlineStr"/>
-      <c r="CTR4" t="inlineStr"/>
-      <c r="CTS4" t="inlineStr"/>
+      <c r="CTF4" t="n">
+        <v>8236.35</v>
+      </c>
+      <c r="CTG4" t="n">
+        <v>8231.280000000001</v>
+      </c>
+      <c r="CTH4" t="n">
+        <v>8554.790000000001</v>
+      </c>
+      <c r="CTI4" t="n">
+        <v>8787.299999999999</v>
+      </c>
+      <c r="CTJ4" t="n">
+        <v>8210.290000000001</v>
+      </c>
+      <c r="CTK4" t="n">
+        <v>8584.370000000001</v>
+      </c>
+      <c r="CTL4" t="n">
+        <v>8784.389999999999</v>
+      </c>
+      <c r="CTM4" t="n">
+        <v>8537.969999999999</v>
+      </c>
+      <c r="CTN4" t="n">
+        <v>7991.64</v>
+      </c>
+      <c r="CTO4" t="n">
+        <v>7686.87</v>
+      </c>
+      <c r="CTP4" t="n">
+        <v>7060.6</v>
+      </c>
+      <c r="CTQ4" t="n">
+        <v>7366.42</v>
+      </c>
+      <c r="CTR4" t="n">
+        <v>7283.92</v>
+      </c>
+      <c r="CTS4" t="n">
+        <v>7500.47</v>
+      </c>
       <c r="CTT4" t="inlineStr">
         <is>
           <t>HSCEI</t>

--- a/data/532/HKSE/Hang Seng Index - Weekly.xlsx
+++ b/data/532/HKSE/Hang Seng Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CTV4"/>
+  <dimension ref="A1:CTW4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13204,15 +13204,20 @@
       </c>
       <c r="CTT1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="CTU1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CTU1" s="1" t="inlineStr">
+      <c r="CTV1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CTV1" s="1" t="inlineStr">
+      <c r="CTW1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -20920,19 +20925,22 @@
         <v>21404.88</v>
       </c>
       <c r="CTS2" t="n">
-        <v>21890</v>
-      </c>
-      <c r="CTT2" t="inlineStr">
+        <v>22039.55</v>
+      </c>
+      <c r="CTT2" t="n">
+        <v>22122</v>
+      </c>
+      <c r="CTU2" t="inlineStr">
         <is>
           <t>HSI</t>
         </is>
       </c>
-      <c r="CTU2" t="inlineStr">
+      <c r="CTV2" t="inlineStr">
         <is>
           <t>Hang Seng Index, Close Price</t>
         </is>
       </c>
-      <c r="CTV2" t="inlineStr">
+      <c r="CTW2" t="inlineStr">
         <is>
           <t>Index: 1964.07.31=100</t>
         </is>
@@ -26558,19 +26566,22 @@
         <v>3932.6</v>
       </c>
       <c r="CTS3" t="n">
-        <v>3944.8</v>
-      </c>
-      <c r="CTT3" t="inlineStr">
+        <v>4002.14</v>
+      </c>
+      <c r="CTT3" t="n">
+        <v>4080.81</v>
+      </c>
+      <c r="CTU3" t="inlineStr">
         <is>
           <t>HSCCI</t>
         </is>
       </c>
-      <c r="CTU3" t="inlineStr">
+      <c r="CTV3" t="inlineStr">
         <is>
           <t>Hang Seng China Affiliated Corporation Index, Close Price</t>
         </is>
       </c>
-      <c r="CTV3" t="inlineStr">
+      <c r="CTW3" t="inlineStr">
         <is>
           <t>Index: 1996.01.02=100</t>
         </is>
@@ -32142,19 +32153,22 @@
         <v>7283.92</v>
       </c>
       <c r="CTS4" t="n">
-        <v>7500.47</v>
-      </c>
-      <c r="CTT4" t="inlineStr">
+        <v>7537.16</v>
+      </c>
+      <c r="CTT4" t="n">
+        <v>7632.95</v>
+      </c>
+      <c r="CTU4" t="inlineStr">
         <is>
           <t>HSCEI</t>
         </is>
       </c>
-      <c r="CTU4" t="inlineStr">
+      <c r="CTV4" t="inlineStr">
         <is>
           <t>Hang Seng China Enterprises Index, Close Price</t>
         </is>
       </c>
-      <c r="CTV4" t="inlineStr">
+      <c r="CTW4" t="inlineStr">
         <is>
           <t>Index: 2001.10.17=100</t>
         </is>

--- a/data/532/HKSE/Hang Seng Index - Weekly.xlsx
+++ b/data/532/HKSE/Hang Seng Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CTW4"/>
+  <dimension ref="A1:CTY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13209,15 +13209,25 @@
       </c>
       <c r="CTU1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-09</t>
+        </is>
+      </c>
+      <c r="CTV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CTW1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CTV1" s="1" t="inlineStr">
+      <c r="CTX1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CTW1" s="1" t="inlineStr">
+      <c r="CTY1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -20928,19 +20938,25 @@
         <v>22039.55</v>
       </c>
       <c r="CTT2" t="n">
-        <v>22122</v>
-      </c>
-      <c r="CTU2" t="inlineStr">
+        <v>21872.01</v>
+      </c>
+      <c r="CTU2" t="n">
+        <v>21518.08</v>
+      </c>
+      <c r="CTV2" t="n">
+        <v>20503</v>
+      </c>
+      <c r="CTW2" t="inlineStr">
         <is>
           <t>HSI</t>
         </is>
       </c>
-      <c r="CTV2" t="inlineStr">
+      <c r="CTX2" t="inlineStr">
         <is>
           <t>Hang Seng Index, Close Price</t>
         </is>
       </c>
-      <c r="CTW2" t="inlineStr">
+      <c r="CTY2" t="inlineStr">
         <is>
           <t>Index: 1964.07.31=100</t>
         </is>
@@ -26569,19 +26585,25 @@
         <v>4002.14</v>
       </c>
       <c r="CTT3" t="n">
-        <v>4080.81</v>
-      </c>
-      <c r="CTU3" t="inlineStr">
+        <v>4112.21</v>
+      </c>
+      <c r="CTU3" t="n">
+        <v>4115.29</v>
+      </c>
+      <c r="CTV3" t="n">
+        <v>3921.55</v>
+      </c>
+      <c r="CTW3" t="inlineStr">
         <is>
           <t>HSCCI</t>
         </is>
       </c>
-      <c r="CTV3" t="inlineStr">
+      <c r="CTX3" t="inlineStr">
         <is>
           <t>Hang Seng China Affiliated Corporation Index, Close Price</t>
         </is>
       </c>
-      <c r="CTW3" t="inlineStr">
+      <c r="CTY3" t="inlineStr">
         <is>
           <t>Index: 1996.01.02=100</t>
         </is>
@@ -32156,19 +32178,25 @@
         <v>7537.16</v>
       </c>
       <c r="CTT4" t="n">
-        <v>7632.95</v>
-      </c>
-      <c r="CTU4" t="inlineStr">
+        <v>7490.37</v>
+      </c>
+      <c r="CTU4" t="n">
+        <v>7385.58</v>
+      </c>
+      <c r="CTV4" t="n">
+        <v>6914.82</v>
+      </c>
+      <c r="CTW4" t="inlineStr">
         <is>
           <t>HSCEI</t>
         </is>
       </c>
-      <c r="CTV4" t="inlineStr">
+      <c r="CTX4" t="inlineStr">
         <is>
           <t>Hang Seng China Enterprises Index, Close Price</t>
         </is>
       </c>
-      <c r="CTW4" t="inlineStr">
+      <c r="CTY4" t="inlineStr">
         <is>
           <t>Index: 2001.10.17=100</t>
         </is>
